--- a/OnBoard/output/trust/catch/Catch_Trust_61.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_61.xlsx
@@ -1966,7 +1966,7 @@
         <v>0.004</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>7.385833333333334</v>
@@ -2130,7 +2130,7 @@
         <v>0.174</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>7.385833333333334</v>
@@ -2294,7 +2294,7 @@
         <v>0.505</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>7.385833333333334</v>
